--- a/data/Subset 1/Video Mosaic Grade 4 Infinite Number Line 4.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 4 Infinite Number Line 4.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1436,7 +1436,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2684,7 +2684,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
